--- a/tests/src/main/java/批量邮件发工资条/2020年4月份工资表-完成扣税计算.xlsx
+++ b/tests/src/main/java/批量邮件发工资条/2020年4月份工资表-完成扣税计算.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\主同步盘\我的坚果云\UoZ\SE101-玩着学编程\封装库代码\yzk18\tests\src\main\java\批量邮件发工资条\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD37F347-9F0B-4182-9375-494366287889}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299C024D-3D84-4AE8-8D27-DCCE07D24706}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5100" yWindow="2100" windowWidth="12450" windowHeight="7980" xr2:uid="{B79D815D-D3AD-4EBB-BB94-B6268214645B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,6 +89,10 @@
   </si>
   <si>
     <t>社保</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实发工资</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -457,7 +461,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -488,7 +492,7 @@
         <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
